--- a/output/kossutha/sheets/kossutha_long_term_monthly_average_noise_levels.xlsx
+++ b/output/kossutha/sheets/kossutha_long_term_monthly_average_noise_levels.xlsx
@@ -145,7 +145,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="15392400" cy="5943600"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.43225806451613</v>
+        <v>41.72514346881661</v>
       </c>
       <c r="C2" t="n">
-        <v>12.01612903225806</v>
+        <v>38.48463546328831</v>
       </c>
     </row>
     <row r="3">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.46428571428572</v>
+        <v>42.42207405037061</v>
       </c>
       <c r="C3" t="n">
-        <v>10.24642857142857</v>
+        <v>36.71848083383303</v>
       </c>
     </row>
     <row r="4">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.44516129032258</v>
+        <v>43.21115978584594</v>
       </c>
       <c r="C4" t="n">
-        <v>16.77741935483871</v>
+        <v>40.07590731707917</v>
       </c>
     </row>
     <row r="5">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.25333333333333</v>
+        <v>52.56089736656761</v>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>45.55432878753156</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.39677419354839</v>
+        <v>42.91914245264756</v>
       </c>
       <c r="C6" t="n">
-        <v>7.1</v>
+        <v>36.72440010392442</v>
       </c>
     </row>
     <row r="7">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.65</v>
+        <v>44.02520710109854</v>
       </c>
       <c r="C7" t="n">
-        <v>25.33666666666667</v>
+        <v>38.38275105001144</v>
       </c>
     </row>
     <row r="8">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.50645161290323</v>
+        <v>43.26391047113532</v>
       </c>
       <c r="C8" t="n">
-        <v>26.03548387096774</v>
+        <v>37.80573768162816</v>
       </c>
     </row>
     <row r="9">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.84516129032258</v>
+        <v>41.80852090641737</v>
       </c>
       <c r="C9" t="n">
-        <v>16.58064516129032</v>
+        <v>37.41270179332054</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34.86</v>
+        <v>46.67717000436611</v>
       </c>
       <c r="C10" t="n">
-        <v>23.47666666666667</v>
+        <v>43.25910903709942</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.60967741935484</v>
+        <v>47.25073196451611</v>
       </c>
       <c r="C11" t="n">
-        <v>15.89032258064516</v>
+        <v>42.74515121210995</v>
       </c>
     </row>
     <row r="12">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.30333333333333</v>
+        <v>42.12602891719004</v>
       </c>
       <c r="C12" t="n">
-        <v>11.03</v>
+        <v>44.37882231995277</v>
       </c>
     </row>
     <row r="13">
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.2516129032258</v>
+        <v>47.0271206921244</v>
       </c>
       <c r="C13" t="n">
-        <v>1.025806451612903</v>
+        <v>1.33039444754545</v>
       </c>
     </row>
     <row r="14">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.51333333333334</v>
+        <v>47.67639785833757</v>
       </c>
       <c r="C14" t="n">
-        <v>38.76</v>
+        <v>43.89884661832628</v>
       </c>
     </row>
     <row r="15">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50.36129032258064</v>
+        <v>52.19711632082382</v>
       </c>
       <c r="C15" t="n">
-        <v>45.03225806451613</v>
+        <v>48.10966512154835</v>
       </c>
     </row>
     <row r="16">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.91666666666666</v>
+        <v>46.34185835784712</v>
       </c>
       <c r="C16" t="n">
-        <v>12.37333333333333</v>
+        <v>41.91471571153248</v>
       </c>
     </row>
     <row r="17">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>41.09354838709677</v>
+        <v>44.69413663322972</v>
       </c>
       <c r="C17" t="n">
-        <v>31.80322580645161</v>
+        <v>40.23193093839823</v>
       </c>
     </row>
     <row r="18">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>41.59999999999999</v>
+        <v>45.13324548138318</v>
       </c>
       <c r="C18" t="n">
-        <v>36.28064516129032</v>
+        <v>40.75074477095221</v>
       </c>
     </row>
     <row r="19">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37.27931034482759</v>
+        <v>44.04588972020633</v>
       </c>
       <c r="C19" t="n">
-        <v>28.16206896551724</v>
+        <v>39.84198437828424</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.54838709677419</v>
+        <v>41.20596239108538</v>
       </c>
       <c r="C20" t="n">
-        <v>20.75483870967742</v>
+        <v>39.64355447810205</v>
       </c>
     </row>
     <row r="21">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>27.97</v>
+        <v>39.11671116638373</v>
       </c>
       <c r="C21" t="n">
-        <v>15.66666666666667</v>
+        <v>35.75792039447333</v>
       </c>
     </row>
     <row r="22">
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.91612903225807</v>
+        <v>39.50922072324047</v>
       </c>
       <c r="C22" t="n">
-        <v>11.72258064516129</v>
+        <v>33.84898128828473</v>
       </c>
     </row>
     <row r="23">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37.36666666666667</v>
+        <v>40.5994615150772</v>
       </c>
       <c r="C23" t="n">
-        <v>23.91333333333333</v>
+        <v>37.86678598641602</v>
       </c>
     </row>
     <row r="24">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.7483870967742</v>
+        <v>35.04349553759984</v>
       </c>
       <c r="C24" t="n">
-        <v>11.69354838709677</v>
+        <v>32.54705195564875</v>
       </c>
     </row>
     <row r="25">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.88387096774193</v>
+        <v>35.36648419340705</v>
       </c>
       <c r="C25" t="n">
-        <v>13.64193548387097</v>
+        <v>35.32535014671549</v>
       </c>
     </row>
     <row r="26">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>22.06333333333333</v>
+        <v>40.38186207409733</v>
       </c>
       <c r="C26" t="n">
-        <v>10.22</v>
+        <v>33.95719857168532</v>
       </c>
     </row>
     <row r="27">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23.91935483870968</v>
+        <v>37.8827612408552</v>
       </c>
       <c r="C27" t="n">
-        <v>15.59354838709678</v>
+        <v>37.95808494919648</v>
       </c>
     </row>
     <row r="28">
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22.27333333333333</v>
+        <v>36.18640644775392</v>
       </c>
       <c r="C28" t="n">
-        <v>8.17</v>
+        <v>35.54819029162254</v>
       </c>
     </row>
     <row r="29">
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11.88709677419355</v>
+        <v>39.92862038479398</v>
       </c>
       <c r="C29" t="n">
-        <v>4.809677419354839</v>
+        <v>37.70724681555278</v>
       </c>
     </row>
     <row r="30">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18.38709677419355</v>
+        <v>36.42276628382687</v>
       </c>
       <c r="C30" t="n">
-        <v>6.019354838709678</v>
+        <v>37.7247903007762</v>
       </c>
     </row>
     <row r="31">
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.53571428571428</v>
+        <v>36.57796400845755</v>
       </c>
       <c r="C31" t="n">
-        <v>8.839285714285714</v>
+        <v>34.86928369391884</v>
       </c>
     </row>
     <row r="32">
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>23.78064516129032</v>
+        <v>36.5509295668563</v>
       </c>
       <c r="C32" t="n">
-        <v>16.61612903225806</v>
+        <v>34.34697807885129</v>
       </c>
     </row>
     <row r="33">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>33.97333333333334</v>
+        <v>44.58433919318529</v>
       </c>
       <c r="C33" t="n">
-        <v>20.15666666666667</v>
+        <v>39.69171245342367</v>
       </c>
     </row>
     <row r="34">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.98064516129032</v>
+        <v>37.17477829393518</v>
       </c>
       <c r="C34" t="n">
-        <v>16.32258064516129</v>
+        <v>36.87022447447988</v>
       </c>
     </row>
     <row r="35">
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.45</v>
+        <v>39.52034973922027</v>
       </c>
       <c r="C35" t="n">
-        <v>17.85333333333334</v>
+        <v>36.98423935308934</v>
       </c>
     </row>
     <row r="36">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.34193548387097</v>
+        <v>39.64789978016562</v>
       </c>
       <c r="C36" t="n">
-        <v>9.541935483870969</v>
+        <v>37.58748572481033</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.91935483870968</v>
+        <v>39.20177239270788</v>
       </c>
       <c r="C37" t="n">
-        <v>16.63870967741935</v>
+        <v>37.28780775032488</v>
       </c>
     </row>
     <row r="38">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>27.61</v>
+        <v>37.91969675110488</v>
       </c>
       <c r="C38" t="n">
-        <v>15.46333333333333</v>
+        <v>36.19594347343443</v>
       </c>
     </row>
     <row r="39">
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23.36451612903226</v>
+        <v>40.27765080619453</v>
       </c>
       <c r="C39" t="n">
-        <v>8.748387096774193</v>
+        <v>41.66660010452598</v>
       </c>
     </row>
     <row r="40">
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25.01333333333333</v>
+        <v>38.15989611926145</v>
       </c>
       <c r="C40" t="n">
-        <v>14.74333333333333</v>
+        <v>36.6442632476798</v>
       </c>
     </row>
     <row r="41">
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>24.1</v>
+        <v>39.18776525592964</v>
       </c>
       <c r="C41" t="n">
-        <v>16.45483870967742</v>
+        <v>38.07032294115369</v>
       </c>
     </row>
     <row r="42">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>30.36129032258065</v>
+        <v>39.15107040293646</v>
       </c>
       <c r="C42" t="n">
-        <v>16.47096774193549</v>
+        <v>34.69853618450435</v>
       </c>
     </row>
     <row r="43">
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.14285714285715</v>
+        <v>40.50149630778129</v>
       </c>
       <c r="C43" t="n">
-        <v>15.98571428571429</v>
+        <v>39.18697315689138</v>
       </c>
     </row>
     <row r="44">
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>22.54193548387097</v>
+        <v>38.89135407103954</v>
       </c>
       <c r="C44" t="n">
-        <v>9.380645161290323</v>
+        <v>39.06783536472109</v>
       </c>
     </row>
     <row r="45">
@@ -1046,10 +1046,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.35333333333334</v>
+        <v>39.67426060183003</v>
       </c>
       <c r="C45" t="n">
-        <v>11.86</v>
+        <v>36.721475934106</v>
       </c>
     </row>
     <row r="46">
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.32903225806452</v>
+        <v>49.48284692194754</v>
       </c>
       <c r="C46" t="n">
-        <v>18.79032258064516</v>
+        <v>47.03624324383482</v>
       </c>
     </row>
     <row r="47">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>40.89</v>
+        <v>51.72105071131209</v>
       </c>
       <c r="C47" t="n">
-        <v>29.25666666666667</v>
+        <v>47.7919401090216</v>
       </c>
     </row>
     <row r="48">
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>39.49354838709677</v>
+        <v>45.77598316952519</v>
       </c>
       <c r="C48" t="n">
-        <v>31.97741935483871</v>
+        <v>40.41979852274324</v>
       </c>
     </row>
     <row r="49">
@@ -1098,10 +1098,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>19.48709677419355</v>
+        <v>41.02794306929318</v>
       </c>
       <c r="C49" t="n">
-        <v>11.6</v>
+        <v>38.03207160495356</v>
       </c>
     </row>
     <row r="50">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>27.02666666666666</v>
+        <v>41.6129652552204</v>
       </c>
       <c r="C50" t="n">
-        <v>17.37</v>
+        <v>38.18972740356043</v>
       </c>
     </row>
     <row r="51">
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>38.75483870967742</v>
+        <v>51.72029153881066</v>
       </c>
       <c r="C51" t="n">
-        <v>33.42580645161291</v>
+        <v>45.78203477431943</v>
       </c>
     </row>
     <row r="52">
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>19.52666666666666</v>
+        <v>41.14677643943202</v>
       </c>
       <c r="C52" t="n">
-        <v>9.449999999999999</v>
+        <v>34.88425406742912</v>
       </c>
     </row>
     <row r="53">
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>31.08064516129032</v>
+        <v>43.43278246093355</v>
       </c>
       <c r="C53" t="n">
-        <v>23.4258064516129</v>
+        <v>39.46553047598147</v>
       </c>
     </row>
     <row r="54">
@@ -1163,10 +1163,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>28.87096774193548</v>
+        <v>41.2235553666365</v>
       </c>
       <c r="C54" t="n">
-        <v>17.98709677419355</v>
+        <v>39.15404287539113</v>
       </c>
     </row>
     <row r="55">
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>36.76785714285715</v>
+        <v>41.80650799724625</v>
       </c>
       <c r="C55" t="n">
-        <v>21.45357142857143</v>
+        <v>38.00951000258934</v>
       </c>
     </row>
     <row r="56">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>32.63870967741936</v>
+        <v>40.7118397198806</v>
       </c>
       <c r="C56" t="n">
-        <v>26.31612903225806</v>
+        <v>39.31015975949377</v>
       </c>
     </row>
     <row r="57">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>26.37666666666667</v>
+        <v>38.88675118339618</v>
       </c>
       <c r="C57" t="n">
-        <v>19.60666666666667</v>
+        <v>39.52943185988999</v>
       </c>
     </row>
     <row r="58">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>17.5741935483871</v>
+        <v>39.46422326749564</v>
       </c>
       <c r="C58" t="n">
-        <v>12.71290322580645</v>
+        <v>39.6988918179154</v>
       </c>
     </row>
     <row r="59">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>25.84666666666667</v>
+        <v>42.08037092585584</v>
       </c>
       <c r="C59" t="n">
-        <v>18.19333333333333</v>
+        <v>39.60558412929653</v>
       </c>
     </row>
     <row r="60">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>38.12903225806452</v>
+        <v>41.00647401555791</v>
       </c>
       <c r="C60" t="n">
-        <v>31.81935483870968</v>
+        <v>38.45284711959415</v>
       </c>
     </row>
     <row r="61">
@@ -1254,10 +1254,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>30.93225806451613</v>
+        <v>41.50083887979448</v>
       </c>
       <c r="C61" t="n">
-        <v>17.85483870967742</v>
+        <v>37.59789831950241</v>
       </c>
     </row>
     <row r="62">
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>31.43666666666667</v>
+        <v>50.19402451628704</v>
       </c>
       <c r="C62" t="n">
-        <v>26.70666666666667</v>
+        <v>46.47470760509692</v>
       </c>
     </row>
     <row r="63">
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>34.5258064516129</v>
+        <v>41.83072010843676</v>
       </c>
       <c r="C63" t="n">
-        <v>30.66451612903226</v>
+        <v>39.51075191517901</v>
       </c>
     </row>
     <row r="64">
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>26.40333333333333</v>
+        <v>41.31768861676257</v>
       </c>
       <c r="C64" t="n">
-        <v>18.8</v>
+        <v>39.42988391195603</v>
       </c>
     </row>
     <row r="65">
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>30.51935483870968</v>
+        <v>40.27456513330109</v>
       </c>
       <c r="C65" t="n">
-        <v>22.83870967741936</v>
+        <v>37.73147586473409</v>
       </c>
     </row>
     <row r="66">
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>34.70967741935484</v>
+        <v>41.07419656345144</v>
       </c>
       <c r="C66" t="n">
-        <v>24.26129032258065</v>
+        <v>38.10997031273067</v>
       </c>
     </row>
     <row r="67">
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>28.73448275862069</v>
+        <v>40.80887538489392</v>
       </c>
       <c r="C67" t="n">
-        <v>14.5448275862069</v>
+        <v>38.93767927517708</v>
       </c>
     </row>
     <row r="68">
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>15.52903225806451</v>
+        <v>40.45245689952146</v>
       </c>
       <c r="C68" t="n">
-        <v>9.961290322580645</v>
+        <v>38.98734282066027</v>
       </c>
     </row>
     <row r="69">
@@ -1358,10 +1358,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>28.23</v>
+        <v>40.70948634305338</v>
       </c>
       <c r="C69" t="n">
-        <v>18.89</v>
+        <v>38.76450501904958</v>
       </c>
     </row>
   </sheetData>
